--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86681F3-7569-4594-A6AA-0DFCBEDA2874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BAA93-A6EB-4493-A996-92EAD6BF4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="-11010" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BAA93-A6EB-4493-A996-92EAD6BF4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F6295-6360-4D71-A03C-9CC108EE9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="-11010" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F6295-6360-4D71-A03C-9CC108EE9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B914BA-F012-48BE-8E71-01ADA14E1F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B914BA-F012-48BE-8E71-01ADA14E1F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC5CC8-D52F-499D-9DD3-66C06F83B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC5CC8-D52F-499D-9DD3-66C06F83B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26DED4-A6E2-4E5C-A379-A7767B5E13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26DED4-A6E2-4E5C-A379-A7767B5E13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F2B3D-76AD-46CA-8F8C-904DD44870B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F2B3D-76AD-46CA-8F8C-904DD44870B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66703058-9EDC-459E-8F01-936E4556316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66703058-9EDC-459E-8F01-936E4556316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46BA322-0CB0-44DE-ABC4-5666D249DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46BA322-0CB0-44DE-ABC4-5666D249DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857825D0-0283-4476-9CD6-3DE0D6F4CC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857825D0-0283-4476-9CD6-3DE0D6F4CC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA30090-7979-44B3-A9EC-0AA3977A0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA30090-7979-44B3-A9EC-0AA3977A0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356109A-0387-4664-8F2D-2C15D30BA481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356109A-0387-4664-8F2D-2C15D30BA481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EAA3AF-9D52-471B-9F76-AA35920D21F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2025.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EAA3AF-9D52-471B-9F76-AA35920D21F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D028274B-F4D5-4537-AF00-552049E04930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
